--- a/pose_detection/Back-Up API person data.xlsx
+++ b/pose_detection/Back-Up API person data.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1410" yWindow="1245" windowWidth="21075" windowHeight="11220" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -19,24 +20,40 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="11"/>
     </font>
@@ -58,32 +75,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -166,44 +235,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -230,32 +299,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -282,24 +333,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -311,532 +344,559 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.85546875" bestFit="1" customWidth="1" min="1" max="2"/>
-    <col width="44.140625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.5703125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21.28515625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" style="3" min="6" max="6"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="13.140625" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="11.42578125" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="13.140625" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="11.42578125" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="9.42578125" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="12" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="10.85546875" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="17.28515625" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="16.28515625" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="11.85" customWidth="1" style="10" min="1" max="2"/>
+    <col width="44.14" customWidth="1" style="10" min="3" max="3"/>
+    <col width="17.57" customWidth="1" style="10" min="4" max="4"/>
+    <col width="21.28" customWidth="1" style="10" min="5" max="5"/>
+    <col width="9" customWidth="1" style="11" min="6" max="6"/>
+    <col width="15.71" customWidth="1" style="10" min="7" max="7"/>
+    <col width="13.14" customWidth="1" style="10" min="8" max="8"/>
+    <col width="11.43" customWidth="1" style="10" min="13" max="13"/>
+    <col width="13.14" customWidth="1" style="10" min="14" max="14"/>
+    <col width="11.43" customWidth="1" style="10" min="15" max="15"/>
+    <col width="9.43" customWidth="1" style="10" min="16" max="16"/>
+    <col width="12" customWidth="1" style="10" min="17" max="17"/>
+    <col width="10.85" customWidth="1" style="10" min="18" max="18"/>
+    <col width="17.28" customWidth="1" style="10" min="19" max="19"/>
+    <col width="16.28" customWidth="1" style="10" min="20" max="20"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="12">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>Person index</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>API_KEY</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="14" t="inlineStr">
         <is>
           <t>No of times alerted</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>Cumulative slouching</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>Alert?</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>Neutral distance</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>Neutral angle</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="13" t="inlineStr">
         <is>
           <t>Left X</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="13" t="inlineStr">
         <is>
           <t>Right X</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Count </t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="13" t="inlineStr">
         <is>
           <t>Presence</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="13" t="inlineStr">
         <is>
           <t>Current dist</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="13" t="inlineStr">
         <is>
           <t>Current angle</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="O1" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Count_max </t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="P1" s="13" t="inlineStr">
         <is>
           <t>n_people</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="Q1" s="13" t="inlineStr">
         <is>
           <t>Err_Length%</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="R1" s="13" t="inlineStr">
         <is>
           <t>Err_angle%</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="S1" s="13" t="inlineStr">
         <is>
           <t>Present err length</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="T1" s="13" t="inlineStr">
         <is>
           <t>Present err angle</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="15" customHeight="1" s="12">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Sree</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>Harshinii</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>o.8Pslqqry60mJ7RaN8FUSMV6zpHYAhhxA</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>34.23448553724738</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>21.96495551081474</v>
-      </c>
-      <c r="I2" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>112.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="D2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="M2" s="7" t="n">
-        <v>33.13608305156178</v>
-      </c>
-      <c r="N2" s="7" t="n">
-        <v>20.90306673675057</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="G2" s="15" t="n">
+        <v>27.89265136196271</v>
+      </c>
+      <c r="H2" s="16" t="n">
+        <v>31.63718404959249</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="K2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M2" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="N2" s="17" t="n">
+        <v>34.88463867593281</v>
+      </c>
+      <c r="O2" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="18">
         <f>(G2-M2)*100/G2</f>
         <v/>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="18">
         <f>(N2-H2)*100/H2</f>
         <v/>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="3" ht="15" customHeight="1" s="12">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
         <is>
           <t>Hridhay</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>o.5DSBAfH6nGGgDe5qWeW3xxzV59nRwraX</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>35.51056180912941</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>22.60258011101406</v>
-      </c>
-      <c r="I3" t="n">
-        <v>133.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>182.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M3" s="7" t="n">
-        <v>32.55764119219941</v>
-      </c>
-      <c r="N3" s="7" t="n">
-        <v>24.65589874408162</v>
-      </c>
-      <c r="S3" s="6">
+      <c r="D3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>31.25699921617557</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <v>24.05162359388598</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M3" s="17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N3" s="17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S3" s="18">
         <f>(G3-M3)*100/G3</f>
         <v/>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="18">
         <f>(N3-H3)*100/H3</f>
         <v/>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="4" ht="15" customHeight="1" s="12">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Adarsh</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>SreeCharan</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>o.cBwOdrMve58QfJ5TwKWeIsf57vtfr9hy</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>38.47076812334269</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>20.86128465452436</v>
-      </c>
-      <c r="I4" t="n">
-        <v>198</v>
-      </c>
-      <c r="J4" t="n">
-        <v>250</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="D4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="M4" s="7" t="n">
-        <v>33.37663853655727</v>
-      </c>
-      <c r="N4" s="7" t="n">
-        <v>20.95473546249028</v>
-      </c>
-      <c r="S4" s="6">
+      <c r="G4" s="15" t="n">
+        <v>29.6141857899217</v>
+      </c>
+      <c r="H4" s="16" t="n">
+        <v>27.11153049417787</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>233.4</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M4" s="17" t="n">
+        <v>26.68332812825267</v>
+      </c>
+      <c r="N4" s="17" t="n">
+        <v>30.73928841697344</v>
+      </c>
+      <c r="S4" s="18">
         <f>(G4-M4)*100/G4</f>
         <v/>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="18">
         <f>(N4-H4)*100/H4</f>
         <v/>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="5" ht="15" customHeight="1" s="12">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Raghu</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Adarsh</t>
+        </is>
+      </c>
+      <c r="C5" s="19" t="inlineStr">
         <is>
           <t>o.EE0Tzv0zamMoLiNJwZ0VWeOBixmokh2M</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>35.35533905932738</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>19.76373635309643</v>
-      </c>
-      <c r="I5" t="n">
-        <v>271.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>320.7</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="G5" s="15" t="n">
+        <v>27.20294101747089</v>
+      </c>
+      <c r="H5" s="16" t="n">
+        <v>30.09734576096889</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>330</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>382</v>
+      </c>
+      <c r="K5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="M5" s="7" t="n">
-        <v>35.35533905932738</v>
-      </c>
-      <c r="N5" s="7" t="n">
-        <v>19.44003482817621</v>
-      </c>
-      <c r="S5" s="6">
+      <c r="M5" s="17" t="n">
+        <v>28.16025568065745</v>
+      </c>
+      <c r="N5" s="17" t="n">
+        <v>31.03881646229514</v>
+      </c>
+      <c r="S5" s="18">
         <f>(G5-M5)*100/G5</f>
         <v/>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="18">
         <f>(N5-H5)*100/H5</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>